--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\get_aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C178F97D-2249-4DD8-B772-A5968DF51117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
   <si>
     <t>Curso</t>
   </si>
@@ -332,147 +349,6 @@
   </si>
   <si>
     <t>Matemática</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>56</t>
   </si>
   <si>
     <t>A Administração ou Gestão é a ciência social que estuda e sistematiza as práticas usadas para administrar.</t>
@@ -782,13 +658,16 @@
   </si>
   <si>
     <t>Seja um excelente aluno na escola, faculdade e em concurso público, nosso curso de matemática vai preparar você para tirar boas notas e ser um aluno NOTA 10!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Aulas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,22 +719,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -897,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,9 +817,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,6 +869,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1138,14 +1062,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,1137 +1087,1146 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>107</v>
+      <c r="B4" s="2">
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>107</v>
+      <c r="B5" s="2">
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>107</v>
+      <c r="B6" s="2">
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>108</v>
+      <c r="B7" s="2">
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>107</v>
+      <c r="B8" s="2">
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>107</v>
+      <c r="B9" s="2">
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>106</v>
+      <c r="B10" s="2">
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>109</v>
+      <c r="B11" s="2">
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>110</v>
+      <c r="B12" s="2">
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>111</v>
+      <c r="B13" s="2">
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>112</v>
+      <c r="B14" s="2">
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>113</v>
+      <c r="B15" s="2">
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>114</v>
+      <c r="B16" s="2">
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>107</v>
+      <c r="B17" s="2">
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>107</v>
+      <c r="B18" s="2">
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>115</v>
+      <c r="B19" s="2">
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>116</v>
+      <c r="B20" s="2">
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>113</v>
+      <c r="B21" s="2">
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>115</v>
+      <c r="B22" s="2">
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>117</v>
+      <c r="B23" s="2">
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>118</v>
+      <c r="B24" s="2">
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>119</v>
+      <c r="B25" s="2">
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>120</v>
+      <c r="B26" s="2">
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>107</v>
+      <c r="B27" s="2">
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>115</v>
+      <c r="B28" s="2">
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>121</v>
+      <c r="B29" s="2">
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>122</v>
+      <c r="B30" s="2">
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>108</v>
+      <c r="B31" s="2">
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
-        <v>108</v>
+      <c r="B32" s="2">
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>123</v>
+      <c r="B33" s="2">
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>109</v>
+      <c r="B34" s="2">
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>124</v>
+      <c r="B35" s="2">
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>125</v>
+      <c r="B36" s="2">
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>126</v>
+      <c r="B37" s="2">
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>127</v>
+      <c r="B38" s="2">
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
-        <v>110</v>
+      <c r="B39" s="2">
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
-        <v>128</v>
+      <c r="B40" s="2">
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
-        <v>129</v>
+      <c r="B41" s="2">
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
-        <v>130</v>
+      <c r="B42" s="2">
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
-        <v>124</v>
+      <c r="B43" s="2">
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
-        <v>131</v>
+      <c r="B44" s="2">
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
-        <v>132</v>
+      <c r="B45" s="2">
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
-        <v>133</v>
+      <c r="B46" s="2">
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
-        <v>123</v>
+      <c r="B47" s="2">
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
-        <v>134</v>
+      <c r="B48" s="2">
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
-        <v>112</v>
+      <c r="B49" s="2">
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
-        <v>135</v>
+      <c r="B50" s="2">
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
-        <v>136</v>
+      <c r="B51" s="2">
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
-        <v>134</v>
+      <c r="B52" s="2">
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
-        <v>136</v>
+      <c r="B53" s="2">
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" t="s">
-        <v>116</v>
+      <c r="B54" s="2">
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
-        <v>137</v>
+      <c r="B55" s="2">
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
-        <v>138</v>
+      <c r="B56" s="2">
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>110</v>
+      <c r="B57" s="2">
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
-        <v>115</v>
+      <c r="B58" s="2">
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" t="s">
-        <v>139</v>
+      <c r="B59" s="2">
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
-        <v>140</v>
+      <c r="B60" s="2">
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
-        <v>141</v>
+      <c r="B61" s="2">
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
-        <v>132</v>
+      <c r="B62" s="2">
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" t="s">
-        <v>112</v>
+      <c r="B63" s="2">
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
-        <v>116</v>
+      <c r="B64" s="2">
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
-        <v>142</v>
+      <c r="B65" s="2">
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
-        <v>115</v>
+      <c r="B66" s="2">
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
+      <c r="B67" s="2">
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
-        <v>110</v>
+      <c r="B68" s="2">
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
-        <v>112</v>
+      <c r="B69" s="2">
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" t="s">
-        <v>112</v>
+      <c r="B70" s="2">
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
-        <v>138</v>
+      <c r="B71" s="2">
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
-        <v>127</v>
+      <c r="B72" s="2">
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73" t="s">
-        <v>143</v>
+      <c r="B73" s="2">
+        <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74" t="s">
-        <v>113</v>
+      <c r="B74" s="2">
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
-        <v>106</v>
+      <c r="B75" s="2">
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
-        <v>136</v>
+      <c r="B76" s="2">
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B77" t="s">
-        <v>144</v>
+      <c r="B77" s="2">
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B78" t="s">
-        <v>113</v>
+      <c r="B78" s="2">
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
-        <v>116</v>
+      <c r="B79" s="2">
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="B80" t="s">
-        <v>145</v>
+      <c r="B80" s="2">
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="B81" t="s">
-        <v>146</v>
+      <c r="B81" s="2">
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
-        <v>115</v>
+      <c r="B82" s="2">
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="B83" t="s">
-        <v>127</v>
+      <c r="B83" s="2">
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
-        <v>147</v>
+      <c r="B84" s="2">
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
-      <c r="B85" t="s">
-        <v>113</v>
+      <c r="B85" s="2">
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
-        <v>146</v>
+      <c r="B86" s="2">
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
-        <v>148</v>
+      <c r="B87" s="2">
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
-      <c r="B88" t="s">
-        <v>140</v>
+      <c r="B88" s="2">
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
-        <v>123</v>
+      <c r="B89" s="2">
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
-        <v>149</v>
+      <c r="B90" s="2">
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
-        <v>150</v>
+      <c r="B91" s="2">
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
-        <v>127</v>
+      <c r="B92" s="2">
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
-        <v>107</v>
+      <c r="B93" s="2">
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="B94" t="s">
-        <v>138</v>
+      <c r="B94" s="2">
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
-        <v>151</v>
+      <c r="B95" s="2">
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
-      <c r="B96" t="s">
-        <v>138</v>
+      <c r="B96" s="2">
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
-        <v>130</v>
+      <c r="B97" s="2">
+        <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
-      <c r="B98" t="s">
-        <v>142</v>
+      <c r="B98" s="2">
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
-      <c r="B99" t="s">
-        <v>127</v>
+      <c r="B99" s="2">
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
-      <c r="B100" t="s">
-        <v>152</v>
+      <c r="B100" s="2">
+        <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
-      <c r="B101" t="s">
-        <v>130</v>
+      <c r="B101" s="2">
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
-      <c r="B102" t="s">
-        <v>128</v>
+      <c r="B102" s="2">
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
-      <c r="B103" t="s">
-        <v>132</v>
+      <c r="B103" s="2">
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
-      <c r="B104" t="s">
-        <v>119</v>
+      <c r="B104" s="2">
+        <v>84</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105">
+        <f>SUM(B2:B104)</f>
+        <v>3662</v>
       </c>
     </row>
   </sheetData>
